--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Adm-Calcrl.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Adm-Calcrl.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -89,9 +92,6 @@
   </si>
   <si>
     <t>Calcrl</t>
-  </si>
-  <si>
-    <t>M1</t>
   </si>
   <si>
     <t>M2</t>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>11.7301752776283</v>
+        <v>12.600084</v>
       </c>
       <c r="H2">
-        <v>11.7301752776283</v>
+        <v>37.800252</v>
       </c>
       <c r="I2">
-        <v>0.3985254423378867</v>
+        <v>0.4109984227877579</v>
       </c>
       <c r="J2">
-        <v>0.3985254423378867</v>
+        <v>0.4109984227877579</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>66.03509213177141</v>
+        <v>66.996675</v>
       </c>
       <c r="N2">
-        <v>66.03509213177141</v>
+        <v>200.990025</v>
       </c>
       <c r="O2">
-        <v>0.6351345381270634</v>
+        <v>0.6276213057730995</v>
       </c>
       <c r="P2">
-        <v>0.6351345381270634</v>
+        <v>0.6276213057730995</v>
       </c>
       <c r="Q2">
-        <v>774.603205180012</v>
+        <v>844.1637327207</v>
       </c>
       <c r="R2">
-        <v>774.603205180012</v>
+        <v>7597.4735944863</v>
       </c>
       <c r="S2">
-        <v>0.2531172727511573</v>
+        <v>0.257951366780737</v>
       </c>
       <c r="T2">
-        <v>0.2531172727511573</v>
+        <v>0.257951366780737</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>11.7301752776283</v>
+        <v>12.600084</v>
       </c>
       <c r="H3">
-        <v>11.7301752776283</v>
+        <v>37.800252</v>
       </c>
       <c r="I3">
-        <v>0.3985254423378867</v>
+        <v>0.4109984227877579</v>
       </c>
       <c r="J3">
-        <v>0.3985254423378867</v>
+        <v>0.4109984227877579</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>13.115666675693</v>
+        <v>13.59324033333333</v>
       </c>
       <c r="N3">
-        <v>13.115666675693</v>
+        <v>40.779721</v>
       </c>
       <c r="O3">
-        <v>0.1261482740066759</v>
+        <v>0.127340756055345</v>
       </c>
       <c r="P3">
-        <v>0.1261482740066759</v>
+        <v>0.127340756055345</v>
       </c>
       <c r="Q3">
-        <v>153.8490689888274</v>
+        <v>171.275970032188</v>
       </c>
       <c r="R3">
-        <v>153.8490689888274</v>
+        <v>1541.483730289692</v>
       </c>
       <c r="S3">
-        <v>0.05027329669867146</v>
+        <v>0.05233684989534742</v>
       </c>
       <c r="T3">
-        <v>0.05027329669867146</v>
+        <v>0.05233684989534741</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>11.7301752776283</v>
+        <v>12.600084</v>
       </c>
       <c r="H4">
-        <v>11.7301752776283</v>
+        <v>37.800252</v>
       </c>
       <c r="I4">
-        <v>0.3985254423378867</v>
+        <v>0.4109984227877579</v>
       </c>
       <c r="J4">
-        <v>0.3985254423378867</v>
+        <v>0.4109984227877579</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>11.3516280808585</v>
+        <v>12.031188</v>
       </c>
       <c r="N4">
-        <v>11.3516280808585</v>
+        <v>36.093564</v>
       </c>
       <c r="O4">
-        <v>0.109181509790874</v>
+        <v>0.1127075324642849</v>
       </c>
       <c r="P4">
-        <v>0.109181509790874</v>
+        <v>0.1127075324642849</v>
       </c>
       <c r="Q4">
-        <v>133.1565870749176</v>
+        <v>151.593979419792</v>
       </c>
       <c r="R4">
-        <v>133.1565870749176</v>
+        <v>1364.345814778128</v>
       </c>
       <c r="S4">
-        <v>0.04351160948452636</v>
+        <v>0.04632261807912112</v>
       </c>
       <c r="T4">
-        <v>0.04351160948452636</v>
+        <v>0.04632261807912112</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
         <v>26</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>11.7301752776283</v>
+        <v>12.600084</v>
       </c>
       <c r="H5">
-        <v>11.7301752776283</v>
+        <v>37.800252</v>
       </c>
       <c r="I5">
-        <v>0.3985254423378867</v>
+        <v>0.4109984227877579</v>
       </c>
       <c r="J5">
-        <v>0.3985254423378867</v>
+        <v>0.4109984227877579</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>11.9472683199257</v>
+        <v>12.55587433333333</v>
       </c>
       <c r="N5">
-        <v>11.9472683199257</v>
+        <v>37.667623</v>
       </c>
       <c r="O5">
-        <v>0.1149104589892022</v>
+        <v>0.1176227662672754</v>
       </c>
       <c r="P5">
-        <v>0.1149104589892022</v>
+        <v>0.1176227662672754</v>
       </c>
       <c r="Q5">
-        <v>140.1435514815842</v>
+        <v>158.205071293444</v>
       </c>
       <c r="R5">
-        <v>140.1435514815842</v>
+        <v>1423.845641640996</v>
       </c>
       <c r="S5">
-        <v>0.04579474149792138</v>
+        <v>0.04834277141978328</v>
       </c>
       <c r="T5">
-        <v>0.04579474149792138</v>
+        <v>0.04834277141978327</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>11.7301752776283</v>
+        <v>12.600084</v>
       </c>
       <c r="H6">
-        <v>11.7301752776283</v>
+        <v>37.800252</v>
       </c>
       <c r="I6">
-        <v>0.3985254423378867</v>
+        <v>0.4109984227877579</v>
       </c>
       <c r="J6">
-        <v>0.3985254423378867</v>
+        <v>0.4109984227877579</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.52058757921038</v>
+        <v>1.569996</v>
       </c>
       <c r="N6">
-        <v>1.52058757921038</v>
+        <v>4.709988000000001</v>
       </c>
       <c r="O6">
-        <v>0.01462521908618448</v>
+        <v>0.01470763943999524</v>
       </c>
       <c r="P6">
-        <v>0.01462521908618448</v>
+        <v>0.01470763943999524</v>
       </c>
       <c r="Q6">
-        <v>17.83675882912226</v>
+        <v>19.782081479664</v>
       </c>
       <c r="R6">
-        <v>17.83675882912226</v>
+        <v>178.038733316976</v>
       </c>
       <c r="S6">
-        <v>0.005828521905610174</v>
+        <v>0.006044816612769069</v>
       </c>
       <c r="T6">
-        <v>0.005828521905610174</v>
+        <v>0.006044816612769068</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>17.2925204532879</v>
+        <v>17.59249933333333</v>
       </c>
       <c r="H7">
-        <v>17.2925204532879</v>
+        <v>52.77749799999999</v>
       </c>
       <c r="I7">
-        <v>0.587502675763673</v>
+        <v>0.573844545710543</v>
       </c>
       <c r="J7">
-        <v>0.587502675763673</v>
+        <v>0.573844545710543</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>66.03509213177141</v>
+        <v>66.996675</v>
       </c>
       <c r="N7">
-        <v>66.03509213177141</v>
+        <v>200.990025</v>
       </c>
       <c r="O7">
-        <v>0.6351345381270634</v>
+        <v>0.6276213057730995</v>
       </c>
       <c r="P7">
-        <v>0.6351345381270634</v>
+        <v>0.6276213057730995</v>
       </c>
       <c r="Q7">
-        <v>1141.913181323408</v>
+        <v>1178.63896027305</v>
       </c>
       <c r="R7">
-        <v>1141.913181323408</v>
+        <v>10607.75064245745</v>
       </c>
       <c r="S7">
-        <v>0.3731432406195744</v>
+        <v>0.3601570630896221</v>
       </c>
       <c r="T7">
-        <v>0.3731432406195744</v>
+        <v>0.3601570630896221</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>17.2925204532879</v>
+        <v>17.59249933333333</v>
       </c>
       <c r="H8">
-        <v>17.2925204532879</v>
+        <v>52.77749799999999</v>
       </c>
       <c r="I8">
-        <v>0.587502675763673</v>
+        <v>0.573844545710543</v>
       </c>
       <c r="J8">
-        <v>0.587502675763673</v>
+        <v>0.573844545710543</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>13.115666675693</v>
+        <v>13.59324033333333</v>
       </c>
       <c r="N8">
-        <v>13.115666675693</v>
+        <v>40.779721</v>
       </c>
       <c r="O8">
-        <v>0.1261482740066759</v>
+        <v>0.127340756055345</v>
       </c>
       <c r="P8">
-        <v>0.1261482740066759</v>
+        <v>0.127340756055345</v>
       </c>
       <c r="Q8">
-        <v>226.8029342479277</v>
+        <v>239.1390715020064</v>
       </c>
       <c r="R8">
-        <v>226.8029342479277</v>
+        <v>2152.251643518057</v>
       </c>
       <c r="S8">
-        <v>0.07411244852189111</v>
+        <v>0.07307379830901652</v>
       </c>
       <c r="T8">
-        <v>0.07411244852189111</v>
+        <v>0.0730737983090165</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +959,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>17.2925204532879</v>
+        <v>17.59249933333333</v>
       </c>
       <c r="H9">
-        <v>17.2925204532879</v>
+        <v>52.77749799999999</v>
       </c>
       <c r="I9">
-        <v>0.587502675763673</v>
+        <v>0.573844545710543</v>
       </c>
       <c r="J9">
-        <v>0.587502675763673</v>
+        <v>0.573844545710543</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>11.3516280808585</v>
+        <v>12.031188</v>
       </c>
       <c r="N9">
-        <v>11.3516280808585</v>
+        <v>36.093564</v>
       </c>
       <c r="O9">
-        <v>0.109181509790874</v>
+        <v>0.1127075324642849</v>
       </c>
       <c r="P9">
-        <v>0.109181509790874</v>
+        <v>0.1127075324642849</v>
       </c>
       <c r="Q9">
-        <v>196.2982607663629</v>
+        <v>211.658666869208</v>
       </c>
       <c r="R9">
-        <v>196.2982607663629</v>
+        <v>1904.928001822872</v>
       </c>
       <c r="S9">
-        <v>0.06414442914605614</v>
+        <v>0.06467660276512385</v>
       </c>
       <c r="T9">
-        <v>0.06414442914605614</v>
+        <v>0.06467660276512385</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1021,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
         <v>26</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>17.2925204532879</v>
+        <v>17.59249933333333</v>
       </c>
       <c r="H10">
-        <v>17.2925204532879</v>
+        <v>52.77749799999999</v>
       </c>
       <c r="I10">
-        <v>0.587502675763673</v>
+        <v>0.573844545710543</v>
       </c>
       <c r="J10">
-        <v>0.587502675763673</v>
+        <v>0.573844545710543</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>11.9472683199257</v>
+        <v>12.55587433333333</v>
       </c>
       <c r="N10">
-        <v>11.9472683199257</v>
+        <v>37.667623</v>
       </c>
       <c r="O10">
-        <v>0.1149104589892022</v>
+        <v>0.1176227662672754</v>
       </c>
       <c r="P10">
-        <v>0.1149104589892022</v>
+        <v>0.1176227662672754</v>
       </c>
       <c r="Q10">
-        <v>206.5983817832337</v>
+        <v>220.8892108385838</v>
       </c>
       <c r="R10">
-        <v>206.5983817832337</v>
+        <v>1988.002897547254</v>
       </c>
       <c r="S10">
-        <v>0.06751020212938809</v>
+        <v>0.06749718287386203</v>
       </c>
       <c r="T10">
-        <v>0.06751020212938809</v>
+        <v>0.06749718287386201</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1083,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
         <v>23</v>
       </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>22</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>17.2925204532879</v>
+        <v>17.59249933333333</v>
       </c>
       <c r="H11">
-        <v>17.2925204532879</v>
+        <v>52.77749799999999</v>
       </c>
       <c r="I11">
-        <v>0.587502675763673</v>
+        <v>0.573844545710543</v>
       </c>
       <c r="J11">
-        <v>0.587502675763673</v>
+        <v>0.573844545710543</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.52058757921038</v>
+        <v>1.569996</v>
       </c>
       <c r="N11">
-        <v>1.52058757921038</v>
+        <v>4.709988000000001</v>
       </c>
       <c r="O11">
-        <v>0.01462521908618448</v>
+        <v>0.01470763943999524</v>
       </c>
       <c r="P11">
-        <v>0.01462521908618448</v>
+        <v>0.01470763943999524</v>
       </c>
       <c r="Q11">
-        <v>26.29479181451103</v>
+        <v>27.62015358333601</v>
       </c>
       <c r="R11">
-        <v>26.29479181451103</v>
+        <v>248.581382250024</v>
       </c>
       <c r="S11">
-        <v>0.008592355346763326</v>
+        <v>0.008439898672918536</v>
       </c>
       <c r="T11">
-        <v>0.008592355346763326</v>
+        <v>0.008439898672918535</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,10 +1145,10 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
@@ -1157,49 +1157,49 @@
         <v>1</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.411247579741904</v>
+        <v>0.02822</v>
       </c>
       <c r="H12">
-        <v>0.411247579741904</v>
+        <v>0.08466</v>
       </c>
       <c r="I12">
-        <v>0.01397188189844037</v>
+        <v>0.0009204998546891057</v>
       </c>
       <c r="J12">
-        <v>0.01397188189844037</v>
+        <v>0.0009204998546891058</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>66.03509213177141</v>
+        <v>66.996675</v>
       </c>
       <c r="N12">
-        <v>66.03509213177141</v>
+        <v>200.990025</v>
       </c>
       <c r="O12">
-        <v>0.6351345381270634</v>
+        <v>0.6276213057730995</v>
       </c>
       <c r="P12">
-        <v>0.6351345381270634</v>
+        <v>0.6276213057730995</v>
       </c>
       <c r="Q12">
-        <v>27.15677181722464</v>
+        <v>1.8906461685</v>
       </c>
       <c r="R12">
-        <v>27.15677181722464</v>
+        <v>17.0158155165</v>
       </c>
       <c r="S12">
-        <v>0.008874024756331804</v>
+        <v>0.0005777253207639248</v>
       </c>
       <c r="T12">
-        <v>0.008874024756331804</v>
+        <v>0.0005777253207639249</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,10 +1207,10 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
@@ -1219,49 +1219,49 @@
         <v>1</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>0.411247579741904</v>
+        <v>0.02822</v>
       </c>
       <c r="H13">
-        <v>0.411247579741904</v>
+        <v>0.08466</v>
       </c>
       <c r="I13">
-        <v>0.01397188189844037</v>
+        <v>0.0009204998546891057</v>
       </c>
       <c r="J13">
-        <v>0.01397188189844037</v>
+        <v>0.0009204998546891058</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>13.115666675693</v>
+        <v>13.59324033333333</v>
       </c>
       <c r="N13">
-        <v>13.115666675693</v>
+        <v>40.779721</v>
       </c>
       <c r="O13">
-        <v>0.1261482740066759</v>
+        <v>0.127340756055345</v>
       </c>
       <c r="P13">
-        <v>0.1261482740066759</v>
+        <v>0.127340756055345</v>
       </c>
       <c r="Q13">
-        <v>5.39378617708029</v>
+        <v>0.3836012422066666</v>
       </c>
       <c r="R13">
-        <v>5.39378617708029</v>
+        <v>3.452411179859999</v>
       </c>
       <c r="S13">
-        <v>0.001762528786113372</v>
+        <v>0.0001172171474449459</v>
       </c>
       <c r="T13">
-        <v>0.001762528786113372</v>
+        <v>0.0001172171474449459</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,61 +1269,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E14">
         <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.411247579741904</v>
+        <v>0.02822</v>
       </c>
       <c r="H14">
-        <v>0.411247579741904</v>
+        <v>0.08466</v>
       </c>
       <c r="I14">
-        <v>0.01397188189844037</v>
+        <v>0.0009204998546891057</v>
       </c>
       <c r="J14">
-        <v>0.01397188189844037</v>
+        <v>0.0009204998546891058</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>11.3516280808585</v>
+        <v>12.031188</v>
       </c>
       <c r="N14">
-        <v>11.3516280808585</v>
+        <v>36.093564</v>
       </c>
       <c r="O14">
-        <v>0.109181509790874</v>
+        <v>0.1127075324642849</v>
       </c>
       <c r="P14">
-        <v>0.109181509790874</v>
+        <v>0.1127075324642849</v>
       </c>
       <c r="Q14">
-        <v>4.668329574383293</v>
+        <v>0.33952012536</v>
       </c>
       <c r="R14">
-        <v>4.668329574383293</v>
+        <v>3.05568112824</v>
       </c>
       <c r="S14">
-        <v>0.001525471160291503</v>
+        <v>0.0001037472672557419</v>
       </c>
       <c r="T14">
-        <v>0.001525471160291503</v>
+        <v>0.0001037472672557419</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,10 +1331,10 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D15" t="s">
         <v>26</v>
@@ -1343,49 +1343,49 @@
         <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.411247579741904</v>
+        <v>0.02822</v>
       </c>
       <c r="H15">
-        <v>0.411247579741904</v>
+        <v>0.08466</v>
       </c>
       <c r="I15">
-        <v>0.01397188189844037</v>
+        <v>0.0009204998546891057</v>
       </c>
       <c r="J15">
-        <v>0.01397188189844037</v>
+        <v>0.0009204998546891058</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>11.9472683199257</v>
+        <v>12.55587433333333</v>
       </c>
       <c r="N15">
-        <v>11.9472683199257</v>
+        <v>37.667623</v>
       </c>
       <c r="O15">
-        <v>0.1149104589892022</v>
+        <v>0.1176227662672754</v>
       </c>
       <c r="P15">
-        <v>0.1149104589892022</v>
+        <v>0.1176227662672754</v>
       </c>
       <c r="Q15">
-        <v>4.913285181096568</v>
+        <v>0.3543267736866667</v>
       </c>
       <c r="R15">
-        <v>4.913285181096568</v>
+        <v>3.18894096318</v>
       </c>
       <c r="S15">
-        <v>0.001605515361892709</v>
+        <v>0.0001082717392571576</v>
       </c>
       <c r="T15">
-        <v>0.001605515361892709</v>
+        <v>0.0001082717392571576</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,61 +1393,371 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>23</v>
       </c>
-      <c r="C16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.02822</v>
+      </c>
+      <c r="H16">
+        <v>0.08466</v>
+      </c>
+      <c r="I16">
+        <v>0.0009204998546891057</v>
+      </c>
+      <c r="J16">
+        <v>0.0009204998546891058</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>1.569996</v>
+      </c>
+      <c r="N16">
+        <v>4.709988000000001</v>
+      </c>
+      <c r="O16">
+        <v>0.01470763943999524</v>
+      </c>
+      <c r="P16">
+        <v>0.01470763943999524</v>
+      </c>
+      <c r="Q16">
+        <v>0.04430528712000001</v>
+      </c>
+      <c r="R16">
+        <v>0.3987475840800001</v>
+      </c>
+      <c r="S16">
+        <v>1.353837996733538E-05</v>
+      </c>
+      <c r="T16">
+        <v>1.353837996733538E-05</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.436453</v>
+      </c>
+      <c r="H17">
+        <v>1.309359</v>
+      </c>
+      <c r="I17">
+        <v>0.01423653164701007</v>
+      </c>
+      <c r="J17">
+        <v>0.01423653164701007</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>66.996675</v>
+      </c>
+      <c r="N17">
+        <v>200.990025</v>
+      </c>
+      <c r="O17">
+        <v>0.6276213057730995</v>
+      </c>
+      <c r="P17">
+        <v>0.6276213057730995</v>
+      </c>
+      <c r="Q17">
+        <v>29.240899793775</v>
+      </c>
+      <c r="R17">
+        <v>263.168098143975</v>
+      </c>
+      <c r="S17">
+        <v>0.008935150581976517</v>
+      </c>
+      <c r="T17">
+        <v>0.008935150581976517</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>0.436453</v>
+      </c>
+      <c r="H18">
+        <v>1.309359</v>
+      </c>
+      <c r="I18">
+        <v>0.01423653164701007</v>
+      </c>
+      <c r="J18">
+        <v>0.01423653164701007</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>13.59324033333333</v>
+      </c>
+      <c r="N18">
+        <v>40.779721</v>
+      </c>
+      <c r="O18">
+        <v>0.127340756055345</v>
+      </c>
+      <c r="P18">
+        <v>0.127340756055345</v>
+      </c>
+      <c r="Q18">
+        <v>5.932810523204332</v>
+      </c>
+      <c r="R18">
+        <v>53.39529470883899</v>
+      </c>
+      <c r="S18">
+        <v>0.001812890703536108</v>
+      </c>
+      <c r="T18">
+        <v>0.001812890703536108</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
         <v>22</v>
       </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>0.411247579741904</v>
-      </c>
-      <c r="H16">
-        <v>0.411247579741904</v>
-      </c>
-      <c r="I16">
-        <v>0.01397188189844037</v>
-      </c>
-      <c r="J16">
-        <v>0.01397188189844037</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>1.52058757921038</v>
-      </c>
-      <c r="N16">
-        <v>1.52058757921038</v>
-      </c>
-      <c r="O16">
-        <v>0.01462521908618448</v>
-      </c>
-      <c r="P16">
-        <v>0.01462521908618448</v>
-      </c>
-      <c r="Q16">
-        <v>0.6253379617358695</v>
-      </c>
-      <c r="R16">
-        <v>0.6253379617358695</v>
-      </c>
-      <c r="S16">
-        <v>0.0002043418338109856</v>
-      </c>
-      <c r="T16">
-        <v>0.0002043418338109856</v>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>0.436453</v>
+      </c>
+      <c r="H19">
+        <v>1.309359</v>
+      </c>
+      <c r="I19">
+        <v>0.01423653164701007</v>
+      </c>
+      <c r="J19">
+        <v>0.01423653164701007</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>12.031188</v>
+      </c>
+      <c r="N19">
+        <v>36.093564</v>
+      </c>
+      <c r="O19">
+        <v>0.1127075324642849</v>
+      </c>
+      <c r="P19">
+        <v>0.1127075324642849</v>
+      </c>
+      <c r="Q19">
+        <v>5.251048096164</v>
+      </c>
+      <c r="R19">
+        <v>47.259432865476</v>
+      </c>
+      <c r="S19">
+        <v>0.001604564352784207</v>
+      </c>
+      <c r="T19">
+        <v>0.001604564352784208</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>26</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>0.436453</v>
+      </c>
+      <c r="H20">
+        <v>1.309359</v>
+      </c>
+      <c r="I20">
+        <v>0.01423653164701007</v>
+      </c>
+      <c r="J20">
+        <v>0.01423653164701007</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>12.55587433333333</v>
+      </c>
+      <c r="N20">
+        <v>37.667623</v>
+      </c>
+      <c r="O20">
+        <v>0.1176227662672754</v>
+      </c>
+      <c r="P20">
+        <v>0.1176227662672754</v>
+      </c>
+      <c r="Q20">
+        <v>5.480049020406333</v>
+      </c>
+      <c r="R20">
+        <v>49.320441183657</v>
+      </c>
+      <c r="S20">
+        <v>0.001674540234372935</v>
+      </c>
+      <c r="T20">
+        <v>0.001674540234372935</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0.436453</v>
+      </c>
+      <c r="H21">
+        <v>1.309359</v>
+      </c>
+      <c r="I21">
+        <v>0.01423653164701007</v>
+      </c>
+      <c r="J21">
+        <v>0.01423653164701007</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>1.569996</v>
+      </c>
+      <c r="N21">
+        <v>4.709988000000001</v>
+      </c>
+      <c r="O21">
+        <v>0.01470763943999524</v>
+      </c>
+      <c r="P21">
+        <v>0.01470763943999524</v>
+      </c>
+      <c r="Q21">
+        <v>0.6852294641880001</v>
+      </c>
+      <c r="R21">
+        <v>6.167065177692001</v>
+      </c>
+      <c r="S21">
+        <v>0.0002093857743403058</v>
+      </c>
+      <c r="T21">
+        <v>0.0002093857743403058</v>
       </c>
     </row>
   </sheetData>
